--- a/biology/Botanique/Glomerinae/Glomerinae.xlsx
+++ b/biology/Botanique/Glomerinae/Glomerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glomerinae sont une sous-tribu de la sous-famille des Epidendroideae, dans la famille des Orchidaceae.
-Selon la classification des Orchidées par Robert Louis Dressler qui date de 1993[1], cette sous-tribu regroupait un nombre important de genres. Initialement, Friedrich Richard Rudolf Schlechter considérait qu'il s'agissait de la tribu des Glomereae.
-Mais les publications scientifiques les plus récentes[2],[3] proposent une classification fondamentalement différente. L'analyse phylogénétiques du genre Glomera, qui est le genre type de cette sous-tribu, le placerait dans la sous-tribu des Coelogyninae. Cependant, cela a pour conséquence de rendre la tribu des Arethuseae paraphylétique.
+Selon la classification des Orchidées par Robert Louis Dressler qui date de 1993, cette sous-tribu regroupait un nombre important de genres. Initialement, Friedrich Richard Rudolf Schlechter considérait qu'il s'agissait de la tribu des Glomereae.
+Mais les publications scientifiques les plus récentes, proposent une classification fondamentalement différente. L'analyse phylogénétiques du genre Glomera, qui est le genre type de cette sous-tribu, le placerait dans la sous-tribu des Coelogyninae. Cependant, cela a pour conséquence de rendre la tribu des Arethuseae paraphylétique.
 Il est donc probable que la classification actuelle évolue.  
 </t>
         </is>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,7 +554,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aglossorhyncha
 Agrostophyllum
